--- a/HotelsScrap/bin/Debug/booking_hotels.xlsx
+++ b/HotelsScrap/bin/Debug/booking_hotels.xlsx
@@ -43,6 +43,339 @@
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>Dom Młynarza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519 595 860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dommlynarza.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Villa Baltica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 555 28 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://villabaltica.com/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 555 28 00, 583352206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@villabaltica.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Arkon Park Gdańsk- Destigo Hotels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/HotelArkonPark/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Villa Ozone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 551 44 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/villaOzone/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Gdynia Boutique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570 177 888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelgb.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>586233363, +48 570 177 888, 570 177 888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hotelgb.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hampton by Hilton Gdansk Airport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 882 10 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hilton.com/pl/hotels/gdnaphx-hampton-gdansk-airport/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hi Hotel Gdansk Airport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 670 47 06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hihotel.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hihotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509 922 566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.linkhotel.pl/kontakt,8,pl.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 562 14 48, 509 922 566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>linkhotel@linkhotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novotel Gdańsk Marina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 558 91 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/NovotelGdanskMarina/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRANO HOTEL Solmarina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.granohotelsolmarina.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 80 51, +48 58 717 80 16, +48 58 582 89 00, +48 58 582 89 80, +48 58 582 89 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grano.solmarina.re@granohotels.pl, mice@granohotels.pl, grano.solmarina@granohotels.pl, grano.solmarina.spa@granohotels.pl, grano.solmarina.restauracja@granohotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oliwa Park Residence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 609 001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.oliwaresidence.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 609 001, 93 255 16 23, 384071241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@oliwaresidence.pl, m.kruszynski@oliwaresidence.plZapytania, k.grulkowski@oliwaresidence.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haffner Hotel &amp; SPA Sopot - Destigo Hotels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelhaffner.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 550 99 99, +48 58 550 98 13, +48 58 550 98 64, +48 58 550 98 53, +48 58 550 98 02, +48 58 550 98 58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelhaffnersopot.pl, restauracja@hotelhaffnersopot.pl, spa@hotelhaffnersopot.pl, konferencje@hotelhaffnersopot.pl, rezerwacje@hotelhaffnersopot.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Courtyard by Marriott Gdynia Waterfront</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 743 07 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.marriott.com/pl-pl/hotels/gdncy-courtyard-gdynia-waterfront/overview/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willa Wincent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731 000 064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://willawincent.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 731 000 064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>relaks@willawincent.pl, relax@willawincent.pl, marketing@willawincent.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antares Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 623 36 39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelantares.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 623 36 39, +48 697 076 606, +48 601 177 404, 519 752 022, +48 586233639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hotelantares.pl, marketing@hotelantares.pl, gastronomia@hotelantares.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Diamond w Białym Dworku</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531 606 606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotel-diamond.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 671 08 95, 389514074, 000091216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotel-diamond.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Jastarnia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 727 04 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hoteldomzdrojowy.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@hoteldomzdrojowy.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Opera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.hotelopera.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@hotelopera.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rezydencja Merwede Aparthotel - My Rest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535 999 468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.myrest.com.pl/lokalizacje/rezydencja_merwede</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 535 999 468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@myrest.com.pl, merwede@myrest.com.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel White</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 246 82 39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://krynicamorskahotele.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 246 82 39, 55 247 47 40, 606 844 776, 601 662 725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@krynicamorskahotele.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Cloud One Gdansk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 881 46 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.granohotels.pl/numberone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 80 00, +48 58 717 80 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>numberone@granohotels.pl, info@granohotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel SPA Wieniawa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelwieniawa.com/kontakt/dane-kontaktowe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504-202506, 644149884, 58 673 92 80, +48 58 673 92 80, +48 728 322 524, +48 728 322 523, +48 784 658 803, +48 606 327 851, +48 606 992 994, +48 58 677 72 20, +48 797 715 336, 6441498 84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelwieniawa.com, gastronomia@hotelwieniawa.com, marketing@hotelwieniawa.com, biurospa@hotelwieniawa.com, biuro@hotelwieniawa.com, 20spa@hotelwieniawa.com, SPAmanagerspa@hotelwieniawa.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hampton By Hilton Gdansk Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 670 33 33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hilton.com/pl/hotels/gdnhxhx-hampton-gdansk-old-town/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Holiday Inn Gdansk - City Centre by IHG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 733 40 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://poland.ihg.com/hotele/hotel-holiday-inn-gdansk-city-centre/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 733 40 00, +48 22 257 66 99, +48 58 733 40 31, +48 58 733 41 02, 800 121 582, 951240500, 123456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIGdansk@ihg.comRecepcja, HIGdansk@ihg.comFront, mateusz.soltys@ihg.comRezerwacja, res.higdansk@ihg.comDzia, sales.higdansk@ihg.comHotel, HIGdansk@ihg.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Lubicz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 814 31 02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.grandlubicz.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 598 418 200, 39 020 63 85, 770983331, +48 59 841 82 00, +48 506 237 789, 39-020-63-85, +48 59 841 82 13, +48 602 778 403, +48 515 036 843, +48 512 390 569, +48 59 841 82 11, +48 59 841 82 65, +48 59 841 82 60, +48 59 841 82 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@grandlubicz.pl, recepcja@grandlubicz.pl, konferencje@grandlubicz.pl, eventy@grandlubicz.pl, j.jurgiewicz@grandlubicz.pl, reservierung@grandlubicz.pl, spa@grandlubicz.pl, medical@grandlubicz.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Royal Baltic 4* Luxury Boutique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 815 52 81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.royal-baltic.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39-000-95-49, +48 605 690 950, +48 607 107 855, 000008204, 39 000 95 49, 771490808, 839000954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@royal-baltic.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hilton Gdansk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 778 71 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://emea.hilton.com/hotels?locale=pl_pl&amp;location=54.3796%2C18.56405&amp;radius=15&amp;title=Gdansk%2C_Poland&amp;map_zoom_level=11</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hotel La Siesta &amp; Medical Spa</x:t>
   </x:si>
   <x:si>
@@ -58,6 +391,963 @@
     <x:t>recepcja@lasiesta.pl, marketing@lasiesta.pl</x:t>
   </x:si>
   <x:si>
+    <x:t>Qubus Hotel Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 752 21 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.qubushotel.com/pl/hotel-gdansk/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 71 782 87 65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdansk@qubushotel.com, rezerwacja@qubushotel.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Nadmorski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 667 77 77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nadmorski.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 667 77 77, +48 58 667 53 99, +48 58 667 52 88, +48 660 784 507, 86-001-12-53, 000009888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@nadmorski.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOTEL NUMBER ONE BY GRANO Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Otomin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 303 99 47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelotomin.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500283603, 500182232, 509992277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hotelotomin.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Celestin Residence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 506 56 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://celestinresidence.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 506 56 00, +48 530 028 058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00info@celestinresidence.pl, info@celestinresidence.plRezerwacje, recepcja@celestinresidence.pl, biuro@celestinresidence.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Browar Gdanski Budget by Noclegi Renters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.noclegi.renters.pl/browar-gdanski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 91 311 11 12, 521378204, 367317066, 000067821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zapytania@renters.pl, rezerwacje@renters.pl, rezerwacje@renters.plMasz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dom Muzyka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://dommuzyka.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 326 06 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@dommuzyka.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smart Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 760 76 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelsmart.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 760 76 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelsmart.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Symphony Modern Tower Apartamenty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535 999 009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://symphony.com.pl/lokalizacje/modern-tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 535 999 009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@symphony.com.pl, moderntower@symphony.com.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willa Lapwing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/lapwingresidence/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Focus Hotel Premium Sopot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44 333 33 33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.focushotels.pl/focus-hotel-premium-sopot/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, 443 333 333, +48 58 728 45 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, sopot@focushotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Hanza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 305 34 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/HanzaPalac/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PURO Gdańsk Stare Miasto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 563 50 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://purohotel.pl/pl/gdansk/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHE Dwór Uphagena Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 506 55 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.archedworuphagena.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 506 55 91, +48 58 506 55 97, +48 690 504 217, +48 500 068 069, +48 58 506 55 92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@archedworuphagena.pl, rezerwacja@archedworuphagena.pl, restauracja@archedworuphagena.pl, kadry@archedworuphagena.pl, spa@remedyspa.pl, konferencje@archedworuphagena.pl, wesele@archedworuphagena.pl, marketing@archedworuphagena.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOTEL ALMOND BUSINESS &amp; SPA BY GRANO Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 351 90 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelalmond.pl/kontakt/skontaktuj-sie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 80 51, +48 58 351 90 00, +48 58 351 90 52, +48 58 351 90 85, +48 58 717 80 16, 92 226 54 65, 363266797, 000058993</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelalmond.pl, recepcja@hotelalmond.pl, gastronomia@hotelalmond.pl, spa@hotelalmond.pl, mice@granohotels.pl, jakub.mruk@granohotels.pl, kontakt@hotelalmond.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Orle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.orle.com.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585 261 021, 502 388 245, 781140 201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@orle.com.pl, info@orle.com.pl, rezerwacja@orle.com.plAdresul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Paliki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>786 118 310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://apartamentypaliki.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>786 118 310, +48 786 118 310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@apartamentypaliki.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rezydent Sopot MGallery Hotel Collection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 555 58 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://rezydentsopotmgallery.pl/pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HB711@accor.com, HB711-FB@accor.com, HB711-sl@accor.com, HB711-sl1@accor.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Browar Gdański by Noclegi Renters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zefiro Ogrody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zefirorooms.pl/contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 579519110, 584100736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>579519110E-mailkontakt@zefirorooms.plOpening, 579519110kontakt@zefirorooms.plTermsPrivacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sea Premium Apartments - Destigo Hotels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793 680 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.seapremiumapartments.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 793 680 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@seapremiumapartments.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Eureka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 551 30 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://eurekasopot.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 551 30 16, +48 517 788 577, +48 504 996 130, +48 887 414 341, +48 889 005 977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sopotbiuro@eurekasopot.pl, 577biuro@eurekasopot.pl, 130marketing@eurekasopot.pl, 341rezerwacje@nowosopocka.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Morski Widok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 506 50 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://krynicamorskahotele.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Zatoka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 728 44 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://zatoka.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 728 44 10, 887 370 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja.hotel@zatoka.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBB Hotel Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 717 87 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ibbhotelgdansk.com/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010203040, 506070809, 101112131, 415161718, 192021222, 324252627, +48 58 717 87 00, +48 519 073 785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info.gdansk@ibbhotels.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hampton By Hilton Gdansk Oliwa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 717 81 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hilton.com/pl/hotels/gdnpohx-hampton-gdansk-oliwa/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Aubrecht Country Spa Resort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 720 85 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelaubrecht.pl/spa-wellness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>597208520, 597208510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing@hotelaubrecht.plrezerwacja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radisson Blu Hotel, Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>728 338 837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/RadissonBluHotelGdansk/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Zhong Hua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 550 20 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelchinski.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>443869842, 574706590, +48 58 550 20 20, +48 507 128 115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelchinski.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scandic Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 300 60 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://scandic.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485830060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdansk@scandichotels.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Focus Hotel Premium Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.focushotels.pl/focus-hotel-premium-gdansk/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, +48 443 333 333, +48 58 670 42 91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, gdansk.premium@focushotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel SPA Faltom Gdynia Rumia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 785 81 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotel-faltom.com.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86-000-15-56, 587 858 100, 586000155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r.falkowski@hotelfaltom.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q Hotel Grand Cru Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 772 73 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.qhotels.pl/hotel-gdansk-centrum/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 690 014 200, +48 601 999 156, +48 534 108 200, 585145979, 221198548, 000087677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grandcrugdansk@qhotels.pl, pgarczarczyk@qhotels.pl, khop@qhotels.pl, jlastowska@qhotels.pl, jbulat@qhotels.pl, akobiela@qhotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercure Gdańsk Stare Miasto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 321 00 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://mercure.accor.com/lien_externe.svlt?goto=fiche_hotel&amp;code_langue=pl&amp;code_hotel=3390&amp;merchantid=ppc-mer-mar-goo-pl-pl-mob&amp;sourceid=bp-cen&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=ppc-mer-mar-goo-pl-pl-ee_ai-mix-sear&amp;utm_term=mar&amp;utm_content=pl-pl-PL-V1434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 321 00 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H3390@accor.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novotel Gdansk Centrum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 300 27 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.confero.pl/konferencje/hotel-novotel-gdansk-centrum,574</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONTOWNIA Lofts &amp; Experience</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 880 10 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://montowniagdansk.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 588 801 000, 000085229, 83-340-30-49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@montowniagdansk.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Gdańsk Boutique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 300 17 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelgdansk.com.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 300 17 00, 509 720 645, 58 300 17 18, 58 300 17 05, 58 300 17 15, 58 300 17 02, 58 320 19 70, +48 798 964 028, 000004789, 583262160, +48 58 300 17 00, +48 58 300 17 14, +48 58 300 17 15, +48 58 320 19 70, 58 300 17 08, 798 964 028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sprzedaz@hotelgdansk.com.pl, konferencje@hotelgdansk.com.pl, marketing@hotelgdansk.com.pl, informacja@brovarnia.pl, recepcjasantaibalispa@gmail.com, rezerwacja@hotelgdansk.com.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotton Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 760 58 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotton.pl/contact.php</x:t>
+  </x:si>
+  <x:si>
+    <x:t>889 008 008, 58 760 58 87, 58 760 58 00, 58 760 58 86, 58 760 58 03, 220582167, 000030273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotton.pl, marketing@hotton.pl, cv@hotton.pl, ksiegowosc@hotton.pl, kadry@hotton.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Focus Hotel Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.focushotels.pl/focus-hotel-gdansk/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, +48 58 350 08 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, gdansk@focushotels.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jess Krolewski Gdansk Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 585 72 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://jesshotel.pl/hotel-krolewski/contact-us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My Story Gdynia Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 582 80 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.mystorygdynia.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>732 901 900, +48 732 901 900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@mystorygdynia.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bayjonn Boutique Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>730 717 171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bayjonnhotel.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 730 71 71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@bayjonnhotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amber Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795 005 915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.amberblue.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 795 147 753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ON-LINErecepcja@amberblue.pl, recepcja@amberblue.plAmber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Wolne Miasto Old Town Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 322 24 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelwm.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 322 24 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelwm.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boutique Residence Gdańsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 558 82 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.instagram.com/boutique_residence_gdansk/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Villa 33 Blisko Plaży</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722 000 333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tel:722000333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Oliwski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 761 66 66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hoteloliwski.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 761 66 66, 84-257-52-06, 220184449, 000024807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@oliwski.pl, hotel@oliwski.pl, m.kobylski@oliwski.pl, w.stefaniak@oliwski.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SQUARE APARTMENTS GDYNIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>695 000 596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://squareapartmentsgdynia.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 695 000 596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@squareapartmentsgdynia.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Marina Club Old Town View</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.marinaclubhotel.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 733 6001, +48587336003, +48731037981</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@marinaclubhotel.pl, biuro@marinaclubhotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Kuracyjny Spa &amp; Wellness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelkuracyjny.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>586225775, 221066410, 000036203, +48 513078401, 58 625 01 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelkuracyjny.pl, spa.recepcja@hotelkuracyjny.pl, marketing@hotelkuracyjny.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dom Oliwski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.domoliwski.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795 000 175, +48 509 940 087, +48 795 000 175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@domoliwski.pl, restauracja@fischgarten.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Impresja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 343 87 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelimpresja.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 343 87 00, +48 782 971 931, 782 971 931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hotelimpresja.pl, marketing@hotelimpresja.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Riviera Residence Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 956 956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://riviera-residence-apartments.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Craft Beer Central Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 351 09 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://centralhotelgdansk.pl/pl/kontakt-lokalizacja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 351 09 10, +48 539 545 686, 58 351 09 10, +48 600 919 165, +48 696 707 736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@centralhotelgdansk.pl, sale@centralhotelgdansk.pl, eventy@centralhotelgdansk.pl, iod@centralhotelgdansk.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Jantar Wellness &amp; Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513 806 697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://jantar-ustka.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 59 814 40 93, 39-319-57-71, +48 603 182 929, +48 513 806 697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>odpowiemy.recepcja@jantar.ustka.pl, e-mailrecepcja@jantar.ustka.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Miłosz Restauracja, Basen dla dzieci, Sala Zabaw, Siłownia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516 242 411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelkaszuby.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89-200-63-09, 222116162, 48 516 24 24, 48 536 03 03, 48 536 38 33, 48 536 99 63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@hotelkaszuby.pl, hotelmiloszkaszuby@gmail.com, restauracja.milosz@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Mistral Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 736 46 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelmistralsport.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 736 46 00, 88-231-21-57, 220764170, 000034560, +48 58 738 68 01, +48 58 736 46 60, 58 736 46 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelmistralsport.pl, marketing@hotelmistralsport.pl, spa@hotelmistralsport.pl, kierownik.gastronomia@hotelmistralsport.pl, sekretariat@hotelmistralsport.pl, rodo@hotelmistralsport.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Fahrenheit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 324 74 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.fahrenheit.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504-202506, +48 58 324 74 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@fahrenheit.pl, recepcja@fahrenheit.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Sadova</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelsadova.pl/kontakt/dane-kontaktowe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 382 30 30, 57 106 71 43, 000 441 062, 221792292, +48 58 382 30 20, +48 58 382 30 00, +48 58 382 30 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelsadova.pl, rezerwacje@hotelsadova.pl, marketing@hotelsadova.pl, a.jurewicz@hotelsadova.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gwiazda Morza Resort SPA&amp;SPORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 600 22 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.gwiazdamorza.com/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 600 22 00, 48 795 15 19, +48 58 600 22 22, +48 58 600 22 33, +48 58 600 22 20, +48 58 600 22 05, +48 58 600 22 03, +48 58 600 22 11, +48 58 585 83 80, 87-169-95-43, 401440102, 600000000, +48 795 151 917, +48 58 760 12 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@gwiazdamorza.com, rezerwacja@gwiazdamorza.com, gastronomia@gwiazdamorza.com, konferencje@gwiazdamorza.com, spa@gwiazdamorza.com, marketing@gwiazdamorza.com, info@twojdomnadbaltykiem.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Hel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>663 127 125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelhel.com/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71-177-76-48, 320681848, 000033197, +48 663 127 125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@hotelhel.com, newsletter@gryf.info.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lapwing Residence Sopot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535 860 985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lapwing.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 535 860 985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@lapwing.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RentPlanet - Apartamenty Chlebova</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71 755 01 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://noclegi.rentplanet.pl/apartamenty/szczegoly-apartamentu?RoomID=170574&amp;SiteID=10168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 71 755 01 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@rentplanet.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Relais &amp; Châteaux Hotel Quadrille - Adults Only</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 351 03 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://quadrille.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 583510300, 000045735, 586228219, 801130112, 100800169, 000056306, 123456789, 101112131, 415161718, 192021222, 324252627, 012345678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@quadrille.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radisson RED Gdansk, Wyspa Spichrzów</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 600 28 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/radissonredgdansk/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sweet Suite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>604 414 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sweet-suite.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>487300230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Bałtyckie - Bulwar Portowy - widok na port, centrum, najlepsza lokalizacja w Ustce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516 020 760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://baltyckie.pl/apartamenty/bulwar-portowy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 516 020 760, 39-296-32-68, 221011805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@baltyckie.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Komturia Old Town by Fahrenheit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.komturia.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 526 66 58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Umi Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 582 88 87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.umihotel.pl/pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 582 88 87, 58 582 88 87, 000102250, 524641064, 585150042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@umihotel.pltel, 87recepcja@umihotel.plMapa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Kahlberg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 247 60 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://kahlberg.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 552 476 017, 731 640 800, 668 034 428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kahlberg@mierzeja.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Faros Gdansk Airport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 670 47 05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelfaros.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 733 733 165, +48 733 793 165, +48 58 670 47 05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hotelfaros.pl, marketing@hotelfaros.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Meridian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelmeridian.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 674 19 01, 788 882 470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelmeridian.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Villa Sedan - Destigo Hotels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/villasedansopot/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Armada Apart Ustka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731 929 294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://armadaapart.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 731 929 294, +48 536 029 297, +48731 929 294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294recepcja@armadaapart.plRestauracja, 297kontakt@tawernaustka.plCzy, 294recepcja@armadaapart.plZnajdziesz, recepcja@armadaapart.plRestauracja, kontakt@tawernaustka.plZnajdziesz</x:t>
+  </x:si>
+  <x:si>
     <x:t>HOTEL GRANO Gdańsk Old Town</x:t>
   </x:si>
   <x:si>
@@ -73,34 +1363,238 @@
     <x:t>re@granohotels.pl, mice@granohotels.pl, grano.gdansk@granohotels.pl, hotelgrano.restauracja@granohotels.pl, hotelgrano.spa@granohotels.pl, info@granohotels.pl</x:t>
   </x:si>
   <x:si>
-    <x:t>Hotel Jastarnia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 727 04 80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Jastarnia%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRANO HOTEL Solmarina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20GRANO%20HOTEL%20Solmarina%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Relais &amp; Châteaux Hotel Quadrille - Adults Only</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 351 03 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://quadrille.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 583510300, 000045735, 586228219, 801130112, 100800169, 000056306, 123456789, 101112131, 415161718, 192021222, 324252627, 012345678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@quadrille.pl</x:t>
+    <x:t>My Story Sopot Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>606 848 606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://mystorysopot.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 606 848 606, 58 382 38 00, 58 382 38 01, 588241211, 691240535, 419780010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@mystorysopot.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Best Western Hotel Jurata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 675 21 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotel-jurata.com.pl/pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 675 21 40, 58 675 21 40, +48 58 675 24 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing@hotel-jurata.com.pl, konferencje@hotel-jurata.com.pl, recepcja@hotel-jurata.com.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Ratuszowy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 397 51 85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelratuszowy.eu/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 52 397 51 85, +48 608 600 252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotelratuszowy@odejewski.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Bonum Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 304 78 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelbonum.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 304 78 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelbonum.pl, info@hotelbonum.pl, biznes@hotelbonum.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Bałtyckie - Grand Baltic - WIFI, Klimatyzacja, Sala Zabaw, Taras wypoczynkowy, centrum Ustki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531 222 262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://grand-baltic.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39-296-32-68, +48 516 020 760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOURAPART Rajska City Centre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>502 507 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://yourapart-rajska-city-centre-apart.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prawdzic Family Resort &amp; Wellness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/prawdzic.gdansk/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Aqua Sopot - Destigo Hotels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/hotelaquasopot/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Browar Kościerzyna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516 012 345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://starybrowarkoscierzyna.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516 012345, 58 680-07-72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@starybrowarkoscierzyna.pl, 012345recepcja@starybrowarkoscierzyna.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zamek Nowęcin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://zameknowecin.com/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 451 259 499, 841173593, 220377562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@zameknowecin.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel KAVKA &amp; Restauracja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 398 97 70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelkavka.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>603 552 299, 605 881 199, +48 523 989 770, +48 605 883 366, +48 603 552 299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelkavka.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So Stay Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 506 53 33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sostayhotel.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 506 53 33, +48 58 506 53 32, +48 731 223 346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@sostayhotel.pl, 33info@sostayhotel.pl, 346manager@sostayhotel.pl, manager@sostayhotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Bałtyckie - Na Wydmie - winda, bezpłatny parking, 100m od port</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://baltyckie.pl/lokalizacje/na-wydmie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apart Neptun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>604 466 466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://apartneptun.com/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 604 466 466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@apartneptun.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>River Style Hotel &amp; SPA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 736 48 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelriverstyle.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517 718 347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@hotelriverstyle.pl, marketing@hotelriverstyle.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Centrum Malbork</x:t>
+  </x:si>
+  <x:si>
+    <x:t>605 405 555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelmalbork.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 576 319 799, 605 405 555, +48 693 705 912, +48 605 405 555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kierownikrecepcji@hotelmalbork.pl, rezerwacja@hotelmalbork.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zajazd Scarlett Sycewice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 811 17 70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/people/Zajazd-Scarlett/100088501157924/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Logos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotellogos-gdansk.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 341 91 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@hotellogos-gdansk.plManager, m.lademann@hotellogos-gdansk.plGastronomia, j.grzesik@hotellogos-gdansk.pl, m.lademann@hotellogos-gdansk.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Villa Eva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 341 67 85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://villaeva.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@villaeva.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Platan</x:t>
@@ -109,130 +1603,685 @@
     <x:t>58 717 86 00</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Platan%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amber Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>795 005 915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Amber%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Focus Hotel Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44 333 33 33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.focushotels.pl/focus-hotel-gdansk/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, +48 58 350 08 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, gdansk@focushotels.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Kuracyjny Spa &amp; Wellness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelkuracyjny.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586225775, 221066410, 000036203, +48 513078401, 58 625 01 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@hotelkuracyjny.pl, spa.recepcja@hotelkuracyjny.pl, marketing@hotelkuracyjny.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Armada Apart Ustka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731 929 294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://armadaapart.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 731 929 294, +48 536 029 297, +48731 929 294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294recepcja@armadaapart.plRestauracja, 297kontakt@tawernaustka.plCzy, 294recepcja@armadaapart.plZnajdziesz, recepcja@armadaapart.plRestauracja, kontakt@tawernaustka.plZnajdziesz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Otomin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 303 99 47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Otomin%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Paliki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>786 118 310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Apartamenty%20Paliki%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Novotel Gdańsk Marina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 558 91 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://all.accor.com/hotel/3375/index.pl.shtml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 558 91 00, +48 58 553 04 60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h3375@accor.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gwiazda Morza Resort SPA&amp;SPORT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 600 22 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.gwiazdamorza.com/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 600 22 00, 48 795 15 19, +48 58 600 22 22, +48 58 600 22 33, +48 58 600 22 20, +48 58 600 22 05, +48 58 600 22 03, +48 58 600 22 11, +48 58 585 83 80, 87-169-95-43, 401440102, 600000000, +48 795 151 917, +48 58 760 12 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@gwiazdamorza.com, rezerwacja@gwiazdamorza.com, gastronomia@gwiazdamorza.com, konferencje@gwiazdamorza.com, spa@gwiazdamorza.com, marketing@gwiazdamorza.com, info@twojdomnadbaltykiem.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sea Premium Apartments - Destigo Hotels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>793 680 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.seapremiumapartments.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 793 680 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@seapremiumapartments.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hilton Gdansk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 778 71 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hilton%20Gdansk%20kontakt#</x:t>
+    <x:t>https://hotelplatan.gda.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 86 00, +48 574 749 209, +48 58 717 86 01, +48 533 336 698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@hotelplatan.gda.pl, justynagalaszewska@hotelplatan.gda.pl, biuro@zacisze.gda.pl, biznes@zacisze.gda.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Notera Hotel SPA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelnotera.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 52 336 06 00, +48 512 795 025, +48 52 336 06 04, +48 52 336 06 06, +48 52 336 06 09, 555208217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@hotelnotera.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Artus - Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 320 96 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://artushotel.com.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 320 96 00, +48 601 387 308, 71-177-76-48, 320681848, 000033197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@artushotel.com.pl, newsletter@gryf.info.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Business Faltom Gdynia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/BusinessFaltomHotelGdynia/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liberum Residence Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>729 199 099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.liberumgdansk.pl/pl/rezerwacja-kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 7291990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@liberumgdansk.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Willa Złota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>606 117 672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.willazlota.pl/pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 674 73 70, +48 606 117 672, +48 606 117 671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>672biuro@willazlota.plTAWERNA, biuro@willazlota.plEmailOfertyWielkanocod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Luzino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 034 910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://meteor-turystyka.pl/czardasz-luzino,luzino.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>696 785 821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aparton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.aparton.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 511 187 023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@aparton.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Szydłowski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 345 70 40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelgdansk.com.pl/oferty-specjalne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 300 17 14, +48 58 300 17 15, +48 58 320 19 70, 58 300 17 08, 798 964 028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@hotelgdansk.com.pl, konferencje@hotelgdansk.com.pl, informacja@brovarnia.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Efekt 72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.efekt72.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 888 085 468, +48 888 085 458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>efekt72@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty na Półwyspie Wydma&amp;Las</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 880 11 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://apartamentynapolwyspie.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 880 11 00, 577 590 690, 000091628, 583343510, 389701149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja@apartamentynapolwyspie.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Polonia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.poloniawroclaw.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Victoria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelvictoria.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 778 28 48, 501 599 890, +48 501 599 890, +48 501599890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelvictoria.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sopotorium Hotel &amp; Medical Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sopotorium.pl/kontakt/kontakt-i-dojazd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 353 59 05, +48 583 535 900, +48 583 527 000, 362387978, 000113747, +48 58 353 59 03, +48 58 353 59 59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05rezerwacje@sopotorium.pl, info@sopotorium.pl, rezerwacje@sopotorium.pl, reservations@sopotorium.pl, sales@sopotorium.pl, a.mazur@sopotorium.pl, med@sopotorium.pl, spa@sopotorium.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fama Residence Gdańsk Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>503 938 270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.famagdansk.pl/kontakt-lokalizacja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 506 56 86, +48 503 938 270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@famagdansk.pl, mateusz.kruszynski@famagdansk.pl, 86info@famagdansk.plBroszura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Kiston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 661 12 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelkiston.pl/hotel/apartamenty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 607 300 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@kiston.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Six Suites, Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660 014 511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://six-suites.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Nad Czernicą</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 723 50 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotelnadczernica.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 59 723 50 11, +48 59 723 50 12, +48 698 642 020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelnadczernica.pl, konferencje@hotelnadczernica.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pokoje Bytów</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://oneapartments.pl/apartamenty/pokoje-bytow-p4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 742 49 50, +48 58 7424950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercure Gdańsk Posejdon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 511 30 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.facebook.com/MercureGdanskPosejdon/?locale=pl_PL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel i Restauracja "Pod Orłem"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 736 66 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotel-podorlem.com/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 736-66-01, +48 665 002 044, +48 58 736-66-02, 89-114-73-38, +48 58 736 66 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotel-podorlem.com, biuro@hotel-podorlem.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Szarlota - Kompleksowo na Kaszubach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://szarlota.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 686 77 55, +48 601 676 009, +48 58 500 83 73, +48 58 746 34 00, +48 58 746 35 35, +48 514 034 023, +48 573 744 336, +48 798 989 453, +48 519 163 484, 000034549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@szarlota.pl, tawerna@szarlota.pl, bowling@szarlota.pl, duetspa@szarlota.pl, anna.lange@szarlota.pl, justyna.reszczynska@szarlota.pl, magdalena.ratajczyk@szarlota.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willa Latarnik - doskonała lokalizacja, blisko atrakcji, 20min do plaży</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602 646 664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.agoda.com/pl-pl/willa-latarnik/hotel/leba-pl.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apartamenty Bałtyckie - Wczasowa - osiedle zamknięte, winda, miejsce parkingowe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://baltyckie.pl/lokalizacja-wczasowa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Beethoven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 710 22 77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelbeethoven.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 506 342 669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelbeethoven.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Holland House Residence Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 325 77 77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hollandhouse.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 325 77 77, +48 58 325 77 78, +48 58 325 77 74, +48 509 710 830, +48 58 320 36 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hollandhouse.pl, 77recepcja@hollandhouse.pl, 78recepcja@hollandhouse.pl, 830marketing@hollandhouse.pl, 25szefkuchni@hotelhollandhouse.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black Swan House, Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600 980 505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://black-swan-house-guest-house.gdanskhotel.org/pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>486021849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Skipper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>538 316 470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelskipper.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>882-516-076, 538-329-393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelskipper.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Łeba Hotel &amp; Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>514 000 462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://triverna.pl/hotel/leba-hotel-spa-leba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161718192, 588219868</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reklamacje@triverna.pl, reklamacje@triverna.pl.Szczeg, ciFAQKontaktbok@triverna.plFacebookInstagramBlogTriverna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medusa Gdańsk Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 351 06 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.medusagdansk.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baltic Sands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://balticsands.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 690 442 450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@balticsands.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Zamek Gniew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 535 38 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.zamek-gniew.pl/biznes/biznes-i-szkolenia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 010 394, 58 535 38 80, +48 58 535 21 62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@zamek-gniew.pl, sprzedaz@zamek-gniew.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Szafir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793 100 608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.szafirhotel.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 793 100 608, +48 58 739 69 96, 786 114 842, +48 786 114 842, 793 170 200, +48 534 002 755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@szafirhotel.pl, spa@szafirhotel.pl, mzuraw@szafirhotel.pl, aogrodowczyk@szafirhotel.pl, restauracja@szafirhotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Saltic Resort &amp; Spa Łeba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelsaltic.pl/leba/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 358 82 22, 383552599, 527289559, 000078943, +48 58 358 81 50, +48 58 358 81 90, +48 58 358 82 25, +48 58 358 82 00, +48 58 358 82 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacja.leba@saltic.pl, recepcja.leba@saltic.pl, eventy.leba@saltic.pl, restauracja.leba@saltic.pl, 25spa.leba@saltic.pl, 00recepcja.leba2@saltic.pl, 01rezerwacja.leba2@saltic.pl, marketing@saltic.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noli Gdansk Wrzeszcz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572 233 563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.trojmiasto.pl/Noli-o97698.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572-233-563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>w...@nolistudios.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel 107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 595 99 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotel107.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 690 110 712, 690 110 712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotel107.pl, marketing@hotel107.pl, tequilarumia@op.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grot Hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 646 96 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://grothotel.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 55 646 96 60, 601-707-654, +48 55 646 96 70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Messa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 674 08 84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://messawladyslawowo.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 84510 02, 587125697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300recepcja@messawladyslawowo.plFacebook, recepcja@messawladyslawowo.plRezerwacje, biuro@messawladyslawowo.plal, 300recepcja@messawladyslawowo.plul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel ARA - Dancing Club Restauracja ARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 674 96 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://arahotel.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 674 96 00, 58 674 93 00, 510 101 007, +48 58 674 96 00, +48 510 101 007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ara@arahotel.com.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Astor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 771 55 55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.astorhotel.pl/oferty-specjalne/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 771 55 55, 000087344, 958171238, 387690520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55rezerwacje.astor@primahotele.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Morze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 815 52 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://okulski.eu/grand-rozewie/article/31/wakacje-nad-morzem-z-wyzywieniem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 774 44 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@okulski.eu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Bryza Resort &amp; Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 675 51 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.bryza.pl/pakiety-spa-nad-morzem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48586755100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@bryza.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Dana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hoteldana.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 91 820 77 00, +48 503 031 148, 506 017 487, +48 502 721 324, +48 502 497 519, 517 126 379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hoteldana.pl, contact@hoteldana.pl, m.bednarczyk@hoteldana.pl, p.klimaszewska@hoteldana.pl, sprzedaz@hoteldana.pl, dyrektorsprzedazy@hoteldana.pl, konferencja@hoteldana.pl, kontakt@hoteldana.pl, k.skapska@hoteldana.pl, gastronomia@hoteldana.pl, szefkuchni@hoteldana.pl, hsk@hoteldana.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel i Restauracja Nad Jeziorem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533 707 344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.nadjezioremczluchow.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 834 33 30, 533 707 344, 668 384 979, 602 104 506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zamek w Krokowej</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://zamekkrokowa.pl/pl/kontakt-do-zamku-krokowa/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 605 333 269, 190030172, 123456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@zamekkrokowa.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bazuny Hotel&amp;Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 680 21 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelbazuny.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 680 21 00, +48 58 680 21 20, +48 58 680 21 43, 503 015 928, +48 58 680 21 41, 91-156-03-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelbazuny.pl, spa@hotelbazuny.pl, szkolenia@hotelbazuny.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel J.J. Darboven</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 679 49 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hoteldarboven.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 679-49-10, 510-230-230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510-230-230Emailrezerwacja@darboven.plWy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Słupsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.hotelslupsk.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>577 747 666, 59 842 63 48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@hotelslupsk.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel i Restauracja Czarny Kos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 278 203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.czarnykos.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>restauracja@czarnykos.pl, hotel@czarnykos.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Equus Sopot Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>506 464 586</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://equussopot.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>506 464 586, +48 506 464 586, 586153672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@equussopot.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bursztynowe Resort&amp;SPA Stegna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797 600 618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bursztynowe-resort.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 797 600 618, +48 517 655 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>618recepcja@bursztynowe-resort.pl, marketing@bursztynowe-resort.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plaża Resort Łeba &amp; Wellness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.plazaresortleba.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797199029, +48 797 199 029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@plaza-resort.pl, recepcja@plaza-resortleba.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willa Księżniczki Sopotu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>606 677 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://willaksiezniczkisopotu.prv.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 606 677 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>willaksiezniczkisopotu@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Bartan Gdansk Seaside</x:t>
@@ -241,1417 +2290,25 @@
     <x:t>58 308 09 99</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Bartan%20Gdansk%20Seaside%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Focus Hotel Premium Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.focushotels.pl/focus-hotel-premium-gdansk/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, +48 443 333 333, +48 58 670 42 91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, gdansk.premium@focushotels.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Nadmorski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Nadmorski%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOTEL NUMBER ONE BY GRANO Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.granohotels.pl/numberone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 717 80 00, +48 58 717 80 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>numberone@granohotels.pl, info@granohotels.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel ARA - Dancing Club Restauracja ARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 674 96 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://arahotel.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 674 96 00, 58 674 93 00, 510 101 007, +48 58 674 96 00, +48 510 101 007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ara@arahotel.com.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Zatoka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 728 44 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Zatoka%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hampton By Hilton Gdansk Oliwa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 717 81 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hilton.com/pl/hotels/gdnpohx-hampton-gdansk-oliwa/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sweet Suite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604 414 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sweet-suite.gdanskhotel.org/pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>487300230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Smart Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 760 76 80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Smart%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Symphony Modern Tower Apartamenty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535 999 009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://symphony.com.pl/lokalizacje/modern-tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 535 999 009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@symphony.com.pl, moderntower@symphony.com.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Focus Hotel Premium Sopot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.focushotels.pl/focus-hotel-premium-sopot/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 44 333 33 33, +48 691 454 227, +48 691 430 328, 443 333 333, +48 58 728 45 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cdr@focushotels.pl, l.grebeniuk@focushotels.pl, n.stegienta@focushotels.pl, sopot@focushotels.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Hanza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 305 34 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelhanza.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603 612 927, 661 511 811, 883 154 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hotel@hotelhanza.pl, info@zafishowani.pl, info.returnspa@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PURO Gdańsk Stare Miasto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 563 50 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://purohotel.pl/pl/gdansk/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARCHE Dwór Uphagena Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 506 55 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.archedworuphagena.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 506 55 91, +48 58 506 55 97, +48 690 504 217, +48 500 068 069, +48 58 506 55 92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@archedworuphagena.pl, rezerwacja@archedworuphagena.pl, restauracja@archedworuphagena.pl, kadry@archedworuphagena.pl, spa@remedyspa.pl, konferencje@archedworuphagena.pl, wesele@archedworuphagena.pl, marketing@archedworuphagena.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOTEL ALMOND BUSINESS &amp; SPA BY GRANO Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 351 90 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelalmond.pl/kontakt/skontaktuj-sie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 717 80 51, +48 58 351 90 00, +48 58 351 90 52, +48 58 351 90 85, +48 58 717 80 16, 92 226 54 65, 363266797, 000058993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@hotelalmond.pl, recepcja@hotelalmond.pl, gastronomia@hotelalmond.pl, spa@hotelalmond.pl, mice@granohotels.pl, jakub.mruk@granohotels.pl, kontakt@hotelalmond.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Orle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 308 07 91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Orle%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rezydent Sopot MGallery Hotel Collection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 555 58 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://rezydentsopotmgallery.pl/pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HB711@accor.com, HB711-FB@accor.com, HB711-sl@accor.com, HB711-sl1@accor.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Browar Gdański by Noclegi Renters</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.noclegi.renters.pl/browar-gdanski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 91 311 11 12, 521378204, 367317066, 000067821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zapytania@renters.pl, rezerwacje@renters.pl, rezerwacje@renters.plMasz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Eureka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 551 30 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Eureka%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Morski Widok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 506 50 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Morski%20Widok%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBB Hotel Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 717 87 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20IBB%20Hotel%20Gda%C5%84sk%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Aubrecht Country Spa Resort</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 720 85 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Aubrecht%20Country%20Spa%20Resort%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radisson Blu Hotel, Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>728 338 837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Radisson%20Blu%20Hotel%2C%20Gda%C5%84sk%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Zhong Hua</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Zhong%20Hua%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scandic Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 300 60 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Scandic%20Gda%C5%84sk%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel SPA Faltom Gdynia Rumia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 785 81 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotel-faltom.com.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86-000-15-56, 587 858 100, 586000155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r.falkowski@hotelfaltom.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q Hotel Grand Cru Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 772 73 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.qhotels.pl/hotel-gdansk-centrum/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 690 014 200, +48 601 999 156, +48 534 108 200, 585145979, 221198548, 000087677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grandcrugdansk@qhotels.pl, pgarczarczyk@qhotels.pl, khop@qhotels.pl, jlastowska@qhotels.pl, jbulat@qhotels.pl, akobiela@qhotels.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mercure Gdańsk Stare Miasto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 321 00 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Mercure%20Gda%C5%84sk%20Stare%20Miasto%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Novotel Gdansk Centrum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 300 27 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://all.accor.com/hotel/0523/index.pl.shtml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 300 27 50, +48 58 300 29 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H0523@accor.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONTOWNIA Lofts &amp; Experience</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 880 10 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20MONTOWNIA%20Lofts%20%26%20Experience%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Gdańsk Boutique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 300 17 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelgdansk.com.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 300 17 00, 509 720 645, 58 300 17 18, 58 300 17 05, 58 300 17 15, 58 300 17 02, 58 320 19 70, +48 798 964 028, 000004789, 583262160, +48 58 300 17 00, +48 58 300 17 14, +48 58 300 17 15, +48 58 320 19 70, 58 300 17 08, 798 964 028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sprzedaz@hotelgdansk.com.pl, konferencje@hotelgdansk.com.pl, marketing@hotelgdansk.com.pl, informacja@brovarnia.pl, recepcjasantaibalispa@gmail.com, rezerwacja@hotelgdansk.com.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotton Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 760 58 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotton%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jess Krolewski Gdansk Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 585 72 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://jesshotel.pl/hotel-krolewski/contact-us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My Story Gdynia Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 582 80 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.mystorygdynia.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>732 901 900, +48 732 901 900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@mystorygdynia.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bayjonn Boutique Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>730 717 171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.bayjonnhotel.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48 730 71 71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@bayjonnhotel.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Wolne Miasto Old Town Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 322 24 42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelwm.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 322 24 42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@hotelwm.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boutique Residence Gdańsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 558 82 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.brgdansk.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>concierge@royal-apartments.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Villa 33 Blisko Plaży</x:t>
-  </x:si>
-  <x:si>
-    <x:t>722 000 333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Villa%2033%20Blisko%20Pla%C5%BCy%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Oliwski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 761 66 66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Oliwski%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SQUARE APARTMENTS GDYNIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>695 000 596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://squareapartmentsgdynia.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 695 000 596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@squareapartmentsgdynia.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Marina Club Old Town View</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.marinaclubhotel.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 733 6001, +48587336003, +48731037981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@marinaclubhotel.pl, biuro@marinaclubhotel.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dom Oliwski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Dom%20Oliwski%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Impresja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 343 87 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Impresja%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Riviera Residence Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666 956 956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://riviera-residence-apartments.gdanskhotel.org/pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Craft Beer Central Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 351 09 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://centralhotelgdansk.pl/pl/kontakt-lokalizacja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 351 09 10, +48 539 545 686, 58 351 09 10, +48 600 919 165, +48 696 707 736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kontakt@centralhotelgdansk.pl, sale@centralhotelgdansk.pl, eventy@centralhotelgdansk.pl, iod@centralhotelgdansk.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Jantar Wellness &amp; Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513 806 697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://jantar-ustka.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 59 814 40 93, 39-319-57-71, +48 603 182 929, +48 513 806 697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>odpowiemy.recepcja@jantar.ustka.pl, e-mailrecepcja@jantar.ustka.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Miłosz Restauracja, Basen dla dzieci, Sala Zabaw, Siłownia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516 242 411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelkaszuby.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89-200-63-09, 222116162, 48 516 24 24, 48 536 03 03, 48 536 38 33, 48 536 99 63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biuro@hotelkaszuby.pl, hotelmiloszkaszuby@gmail.com, restauracja.milosz@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Mistral Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 736 46 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Mistral%20Sport%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Fahrenheit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 324 74 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.fahrenheit.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504-202506, +48 58 324 74 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hotel@fahrenheit.pl, recepcja@fahrenheit.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Sadova</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 382 30 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Sadova%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Hel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>663 127 125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Hel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lapwing Residence Sopot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535 860 985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Lapwing%20Residence%20Sopot%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RentPlanet - Apartamenty Chlebova</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71 755 01 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://noclegi.rentplanet.pl/apartamenty/szczegoly-apartamentu?RoomID=170574&amp;SiteID=10168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 71 755 01 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biuro@rentplanet.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radisson RED Gdansk, Wyspa Spichrzów</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 600 28 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Radisson%20RED%20Gdansk%2C%20Wyspa%20Spichrz%C3%B3w%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Bałtyckie - Bulwar Portowy - widok na port, centrum, najlepsza lokalizacja w Ustce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516 020 760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://baltyckie.pl/apartamenty/bulwar-portowy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 516 020 760, 39-296-32-68, 221011805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kontakt@baltyckie.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Komturia Old Town by Fahrenheit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.komturia.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 526 66 58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Umi Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 582 88 87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Umi%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Kahlberg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 247 60 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Kahlberg%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Faros Gdansk Airport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 670 47 05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelfaros.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 733 733 165, +48 733 793 165, +48 58 670 47 05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@hotelfaros.pl, marketing@hotelfaros.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Meridian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 674 19 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelmeridian.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 674 19 01, 788 882 470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@hotelmeridian.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Villa Sedan - Destigo Hotels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/villasedansopot/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My Story Sopot Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>606 848 606</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://mystorysopot.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 606 848 606, 58 382 38 00, 58 382 38 01, 588241211, 691240535, 419780010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@mystorysopot.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Best Western Hotel Jurata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 675 21 40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotel-jurata.com.pl/pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 675 21 40, 58 675 21 40, +48 58 675 24 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marketing@hotel-jurata.com.pl, konferencje@hotel-jurata.com.pl, recepcja@hotel-jurata.com.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chrobry Apartamenty Gdańsk Grodzka 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530 999 283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Chrobry%20Apartamenty%20Gda%C5%84sk%20Grodzka%2010%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Ratuszowy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 397 51 85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Ratuszowy%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Bonum Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 304 78 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Bonum%20Old%20Town%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Bałtyckie - Grand Baltic - WIFI, Klimatyzacja, Sala Zabaw, Taras wypoczynkowy, centrum Ustki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531 222 262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://grand-baltic.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39-296-32-68, +48 516 020 760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOURAPART Rajska City Centre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>502 507 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20YOURAPART%20Rajska%20City%20Centre%20kontakt&amp;sei=XvrwZ-HTAbXj0PEPuYDcmAE#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prawdzic Family Resort &amp; Wellness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/prawdzic.gdansk/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Aqua Sopot - Destigo Hotels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/hotelaquasopot/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Browar Kościerzyna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>516 012 345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Browar%20Ko%C5%9Bcierzyna%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Niedźwiadek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>665 658 888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Nied%C5%BAwiadek%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zamek Nowęcin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/zameknowecin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel KAVKA &amp; Restauracja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 398 97 70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20KAVKA%20%26%20Restauracja%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>So Stay Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 506 53 33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20So%20Stay%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Bałtyckie - Na Wydmie - winda, bezpłatny parking, 100m od port</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://baltyckie.pl/lokalizacje/na-wydmie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apart Neptun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>604 466 466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://apartneptun.com/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 604 466 466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@apartneptun.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>River Style Hotel &amp; SPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 736 48 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20River%20Style%20Hotel%20%26%20SPA%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Centrum Malbork</x:t>
-  </x:si>
-  <x:si>
-    <x:t>605 405 555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelmalbork.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 576 319 799, 605 405 555, +48 693 705 912, +48 605 405 555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kierownikrecepcji@hotelmalbork.pl, rezerwacja@hotelmalbork.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zajazd Scarlett Sycewice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 811 17 70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Zajazd%20Scarlett%20Sycewice%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Logos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotellogos-gdansk.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 341 91 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@hotellogos-gdansk.plManager, m.lademann@hotellogos-gdansk.plGastronomia, j.grzesik@hotellogos-gdansk.pl, m.lademann@hotellogos-gdansk.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Villa Eva</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 341 67 85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Villa%20Eva%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notera Hotel SPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Notera%20Hotel%20SPA%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Artus - Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 320 96 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Artus%20-%20Old%20Town%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Business Faltom Gdynia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/BusinessFaltomHotelGdynia/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liberum Residence Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>729 199 099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Liberum%20Residence%20Old%20Town%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Willa Złota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>606 117 672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Willa%20Z%C5%82ota%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Luzino</x:t>
-  </x:si>
-  <x:si>
-    <x:t>607 034 910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Luzino%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aparton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.aparton.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 511 187 023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@aparton.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Szydłowski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 345 70 40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Szyd%C5%82owski%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Efekt 72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.efekt72.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 888 085 468, +48 888 085 458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>efekt72@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty na Półwyspie Wydma&amp;Las</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 880 11 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://apartamentynapolwyspie.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 880 11 00, 577 590 690, 000091628, 583343510, 389701149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@apartamentynapolwyspie.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Polonia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://meteor-turystyka.pl/polonia-chojnice,chojnice.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>728 069 696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Victoria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/Hotel.Spa.Victoria/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sopotorium Hotel &amp; Medical Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.sopotorium.pl/kontakt/kontakt-i-dojazd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 353 59 05, +48 583 535 900, +48 583 527 000, 362387978, 000113747, +48 58 353 59 03, +48 58 353 59 59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05rezerwacje@sopotorium.pl, info@sopotorium.pl, rezerwacje@sopotorium.pl, reservations@sopotorium.pl, sales@sopotorium.pl, a.mazur@sopotorium.pl, med@sopotorium.pl, spa@sopotorium.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fama Residence Gdańsk Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>503 938 270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.famagdansk.pl/kontakt-lokalizacja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 506 56 86, +48 503 938 270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@famagdansk.pl, mateusz.kruszynski@famagdansk.pl, 86info@famagdansk.plBroszura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Kiston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 661 12 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Kiston%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Six Suites, Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>660 014 511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Six%20Suites%2C%20Old%20Town%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Nad Czernicą</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 723 50 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Nad%20Czernic%C4%85%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pokoje Bytów</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://oneapartments.pl/apartamenty/pokoje-bytow-p4/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 742 49 50, +48 58 7424950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mercure Gdańsk Posejdon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 511 30 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://all.accor.com/hotel/3391/index.pl.shtml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 511 30 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H3391@accor.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel i Restauracja "Pod Orłem"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 736 66 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotel-podorlem.com/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 736-66-01, +48 665 002 044, +48 58 736-66-02, 89-114-73-38, +48 58 736 66 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@hotel-podorlem.com, biuro@hotel-podorlem.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Szarlota - Kompleksowo na Kaszubach</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://szarlota.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 686 77 55, +48 601 676 009, +48 58 500 83 73, +48 58 746 34 00, +48 58 746 35 35, +48 514 034 023, +48 573 744 336, +48 798 989 453, +48 519 163 484, 000034549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@szarlota.pl, tawerna@szarlota.pl, bowling@szarlota.pl, duetspa@szarlota.pl, anna.lange@szarlota.pl, justyna.reszczynska@szarlota.pl, magdalena.ratajczyk@szarlota.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willa Latarnik - doskonała lokalizacja, blisko atrakcji, 20min do plaży</x:t>
-  </x:si>
-  <x:si>
-    <x:t>602 646 664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.agoda.com/pl-pl/willa-latarnik/hotel/leba-pl.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apartamenty Bałtyckie - Wczasowa - osiedle zamknięte, winda, miejsce parkingowe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://baltyckie.pl/lokalizacja-wczasowa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Beethoven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 710 22 77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Beethoven%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Holland House Residence Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 325 77 77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hollandhouse.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 58 325 77 77, +48 58 325 77 78, +48 58 325 77 74, +48 509 710 830, +48 58 320 36 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@hollandhouse.pl, 77recepcja@hollandhouse.pl, 78recepcja@hollandhouse.pl, 830marketing@hollandhouse.pl, 25szefkuchni@hotelhollandhouse.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Black Swan House, Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>600 980 505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Black%20Swan%20House%2C%20Old%20Town%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Skipper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>538 316 470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Skipper%20kontakt&amp;sei=5_rwZ52tGJzHwPAPw-SgoQs#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Łeba Hotel &amp; Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514 000 462</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20%C5%81eba%20Hotel%20%26%20Spa%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medusa Gdańsk Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 351 06 60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.medusagdansk.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baltic Sands</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://balticsands.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 690 442 450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@balticsands.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Zamek Gniew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 535 38 80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Zamek%20Gniew%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Szafir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>793 100 608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Szafir%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Saltic Resort &amp; Spa Łeba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 358 82 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Saltic%20Resort%20%26%20Spa%20%C5%81eba%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noli Gdansk Wrzeszcz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572 233 563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Noli%20Gdansk%20Wrzeszcz%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel 107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 595 99 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20107%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grot Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 646 96 60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Grot%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Messa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 674 08 84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Messa%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Astor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 771 55 55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Astor%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Morze</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 815 52 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Morze%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Bryza Resort &amp; Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 675 51 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Bryza%20Resort%20%26%20Spa%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Dana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Dana%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel i Restauracja Nad Jeziorem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>533 707 344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.nadjezioremczluchow.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 834 33 30, 533 707 344, 668 384 979, 602 104 506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zamek w Krokowej</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://zamekkrokowa.pl/pl/kontakt-do-zamku-krokowa/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 605 333 269, 190030172, 123456789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recepcja@zamekkrokowa.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bazuny Hotel&amp;Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 680 21 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Bazuny%20Hotel%26Spa%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel J.J. Darboven</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 679 49 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20J.J.%20Darboven%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Słupsk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://meteor-turystyka.pl/poznanska-slupsk,slupsk.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>881 136 025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel i Restauracja Czarny Kos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666 278 203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.czarnykos.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>restauracja@czarnykos.pl, hotel@czarnykos.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equus Sopot Apartments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>506 464 586</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://equussopot.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>506 464 586, +48 506 464 586, 586153672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>biuro@equussopot.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bursztynowe Resort&amp;SPA Stegna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>797 600 618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Bursztynowe%20Resort%26SPA%20Stegna%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plaża Resort Łeba &amp; Wellness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>797 199 029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Pla%C5%BCa%20Resort%20%C5%81eba%20%26%20Wellness%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willa Księżniczki Sopotu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>606 677 128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://willaksiezniczkisopotu.prv.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 606 677 128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>willaksiezniczkisopotu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dom Młynarza</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519 595 860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dommlynarza.pl/kontakt</x:t>
+    <x:t>https://www.hotelbartan.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>381540109, 820015500, 83-013-45-48, 000619762, +48 58 323 99 08, +48 602 651 157, +48 58 323 99 07, +48 604 107 207, +48 58 323 99 06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@hotelbartan.pl, catering@hotelbartan.pl, b.gast@hotelbartan.pl, a.czaplinska@hotelbartan.pl</x:t>
   </x:si>
   <x:si>
     <x:t>City Center - Amber Sky Apartments by Apartmore</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.bedandbreakfast.eu/en/a/LguNKNby4Bda/city-center-amber-sky-apartments-by-apartmore</x:t>
+    <x:t>https://apartmore.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 606 314 657, +48 782 263 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@apartmore.pl, mateusz.knigawka@apartmore.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Kurort Stara Wędzarnia</x:t>
@@ -1681,13 +2338,13 @@
     <x:t>Sea Power Residence Jastrzębia Góra</x:t>
   </x:si>
   <x:si>
-    <x:t>https://sea-power-residence-jastrzebia-gora.booked.com.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113 519 951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9515support@booked.net</x:t>
+    <x:t>http://www.residence.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 728 728 628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@residence.pl, recepcja@residence.plHomeApartamentyCeny</x:t>
   </x:si>
   <x:si>
     <x:t>Moris Boutique Beach Hotel</x:t>
@@ -1705,19 +2362,10 @@
     <x:t>hotel@hotel-moris.com.pl</x:t>
   </x:si>
   <x:si>
-    <x:t>Hotel Villa Baltica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 555 28 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Villa%20Baltica%20kontakt#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hotel Olimp</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.facebook.com/@olimpwejherowo/?locale=pl_PL</x:t>
+    <x:t>https://olimp-wejherowo.worhot.com/</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Na Skarpie - Charzykowy</x:t>
@@ -1726,7 +2374,13 @@
     <x:t>515 819 039</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Na%20Skarpie%20-%20Charzykowy%20kontakt#</x:t>
+    <x:t>https://hotelnaskarpie.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 52 334 13 30, +48 515 819 039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30info@hotelnaskarpie.pl, 039info@hotelnaskarpie.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Love Sopot Residence</x:t>
@@ -1750,7 +2404,13 @@
     <x:t>570 908 070</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Urbi%20kontakt#</x:t>
+    <x:t>https://urbihotel.pl/hotel-gdansk-kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 570 90 80, 57 108 43 31, 363945334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emailrecepcja@urbihotel.pl, recepcja@urbihotel.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Blick</x:t>
@@ -1759,7 +2419,7 @@
     <x:t>58 783 03 00</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Blick%20kontakt#</x:t>
+    <x:t>http://www.confero.pl/konferencje/hotel-blick,2207</x:t>
   </x:si>
   <x:si>
     <x:t>Pałac Łebunia</x:t>
@@ -1768,9 +2428,6 @@
     <x:t>693 070 070</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Pa%C5%82ac%20%C5%81ebunia%20kontakt#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Apartamenty Sopot19</x:t>
   </x:si>
   <x:si>
@@ -1792,7 +2449,13 @@
     <x:t>58 354 15 43</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Stay%20inn%20Hotel%20Gda%C5%84sk%20kontakt#</x:t>
+    <x:t>https://www.stayinngdansk.com/kontakt.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 354 15 43, +48 58 354 14 63, +48 517 238 042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>booking@stayinngdansk.com, rodo@stayinnhotels.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Rejs</x:t>
@@ -1813,7 +2476,13 @@
     <x:t>Apartamenty Collegia</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Apartamenty%20Collegia%20kontakt&amp;sei=SvvwZ8-uBZKgwPAPoej_SA#</x:t>
+    <x:t>https://collegia.pl/kontakt-hotel/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701031771, 145836795, 000039843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@collegia.pl, RECEPCJA@COLLEGIA.PL</x:t>
   </x:si>
   <x:si>
     <x:t>Golden Lion House Bed&amp;Breakfast</x:t>
@@ -1831,16 +2500,10 @@
     <x:t>REZERWACJE@goldenlion.house</x:t>
   </x:si>
   <x:si>
-    <x:t>Hotel Arkon Park Gdańsk- Destigo Hotels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/HotelArkonPark/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hotel Piast</x:t>
   </x:si>
   <x:si>
-    <x:t>https://meteor-turystyka.pl/hotelpiast-slupsk,slupsk.html</x:t>
+    <x:t>http://www.hotelpiast.slupsk.pl/pl</x:t>
   </x:si>
   <x:si>
     <x:t>Zajazd U Julii</x:t>
@@ -1861,7 +2524,13 @@
     <x:t>535 377 882</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Belmar%20Park%20Resort%20%26%20SPA%20kontakt#</x:t>
+    <x:t>https://www.belmarpark.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 535 377 882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@belmarpark.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Jakubowy Hotel</x:t>
@@ -1870,7 +2539,13 @@
     <x:t>58 717 68 68</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Jakubowy%20Hotel%20kontakt#</x:t>
+    <x:t>https://www.jakubowyhotel.pl/?page_id=31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 68 68, +48 733 335 159, +48 607 574 790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@jakubowyhotel.pl, 790e.kruczek@jakubowyhotel.plJakubowy, recepcja@jakubowyhotel.plInformacje</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Gniecki Gdansk</x:t>
@@ -1879,142 +2554,172 @@
     <x:t>58 302 02 02</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Gniecki%20Gdansk%20kontakt#</x:t>
+    <x:t>https://hotelgnieckigdansk.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 302 02 02, 48 793 95 97, 583198994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recepcja@hotelgnieckigdansk.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Wodnik</x:t>
   </x:si>
   <x:si>
-    <x:t>https://meteor-turystyka.pl/wodnik-leba,leba.html</x:t>
+    <x:t>http://wodnik-hotel.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 504 080 810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wodnik@wodnik-hotel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Majewski Hotel &amp; SPA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 272 26 55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotel-majewski.pl/kontakt.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533 380 064, 76 020 17 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>064hotel@hotel-majewski.plRESTAURACJA, 064hotel@hotel-majewski.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Vesper House</x:t>
+  </x:si>
+  <x:si>
+    <x:t>605 652 652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelvesper.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 605 652 652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@hotelvesper.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungalows at Sierra Golf Resort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sierraresort.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 607 755 255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sierragolf@sierragolf.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Bartnik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 683 36 66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hotel-bartnik.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 683 36 66, 601 653 794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@gidzinski.com.pl, rezerwacja@hotel-bartnik.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B12 Apartments by Marina Gdańsk - Old Town</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 154 144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.downtownapartments.pl/apartamenty/nadmotlawie-b12-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 577 808 007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@downtownapartments.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Milo Gdansk Airport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505 340 341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.hotelmilo.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 505 340 341, +48 58 670 42 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@hotelmilo.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Aleksander</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.hotel-aleksander.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54 412 66 66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66recepcja@hotel-aleksander.plW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Marmułowski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 672 13 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.confero.pl/konferencje/hotel-marmulowski,968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Zamkowy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 842 52 94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://meteor-turystyka.pl/zamkowy-slupsk,slupsk.html</x:t>
   </x:si>
   <x:si>
     <x:t>881 136 014</x:t>
   </x:si>
   <x:si>
-    <x:t>ela...@...p.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Majewski Hotel &amp; SPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55 272 26 55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Majewski%20Hotel%20%26%20SPA%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Vesper House</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Vesper%20House%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Villa Ozone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 551 44 90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Villa%20Ozone%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bungalows at Sierra Golf Resort</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sierraresort.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 607 755 255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sierragolf@sierragolf.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Bartnik</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 683 36 66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Bartnik%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B12 Apartments by Marina Gdańsk - Old Town</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 154 144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://nadmorze.pl/noclegi/rezerwuj/bg/247981/WM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Milo Gdansk Airport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>505 340 341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.hotelmilo.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 505 340 341, +48 58 670 42 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacje@hotelmilo.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Aleksander</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://meteor-turystyka.pl/aleksander-ustka,ustka.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Marmułowski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 672 13 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Marmu%C5%82owski%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Gdynia Boutique</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570 177 888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelgb.pl/kontakt/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586233363, +48 570 177 888, 570 177 888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@hotelgb.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Zamkowy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 842 52 94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Zamkowy%20kontakt#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hotel Biancas</x:t>
   </x:si>
   <x:si>
     <x:t>531 713 713</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Biancas%20kontakt#</x:t>
+    <x:t>https://biancas.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531 713 713, 988351000, 300169185, 668859480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@biancas.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Sopot - Hotel, Conference &amp; SPA</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.facebook.com/hotelsopot88/?locale=pl_PL</x:t>
+    <x:t>https://www.hotelsopot.eu/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 882 80 00, +48 58 882 80 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reservation@hotelsopot.eu, reception@hotelsopot.eu</x:t>
   </x:si>
   <x:si>
     <x:t>Pod Lipami</x:t>
@@ -2047,15 +2752,6 @@
     <x:t>https://nadmorze.pl/noclegi/gdynia/bg/1955682/thruster-rooms-kitchen-chill-out-zone-netflix-lobby-netflix</x:t>
   </x:si>
   <x:si>
-    <x:t>Oliwa Park Residence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666 609 001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Oliwa%20Park%20Residence%20kontakt#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pałac Ciekocinko Hotel Resort &amp; Wellness</x:t>
   </x:si>
   <x:si>
@@ -2080,28 +2776,13 @@
     <x:t>797 586 417</x:t>
   </x:si>
   <x:si>
-    <x:t>https://pomaranczowaplaza.pl/kontakt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 515 263 115, +48 797 586 417, +48 58 551 40 68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hotel@pomaranczowaplaza.pl, restauracja@pomaranczowaplaza.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willa Wincent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731 000 064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://willawincent.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 731 000 064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>relaks@willawincent.pl, relax@willawincent.pl, marketing@willawincent.pl</x:t>
+    <x:t>https://pomaranczowaplaza.pl/hotel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 515 263 115, +48 58 551 40 68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@pomaranczowaplaza.pl</x:t>
   </x:si>
   <x:si>
     <x:t>MERSEA</x:t>
@@ -2125,7 +2806,7 @@
     <x:t>609 350 488</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Szymbark%20kontakt#</x:t>
+    <x:t>https://www.hotelszymbark.pl/kontakt</x:t>
   </x:si>
   <x:si>
     <x:t>Villa Bałtycka</x:t>
@@ -2143,15 +2824,6 @@
     <x:t>recepcja@villabaltycka.pl</x:t>
   </x:si>
   <x:si>
-    <x:t>Antares Hotel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 623 36 39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Antares%20Hotel%20kontakt#</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kawena Gdańsk</x:t>
   </x:si>
   <x:si>
@@ -2167,16 +2839,13 @@
     <x:t>722 221 216</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Testa%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Opera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://meteor-turystyka.pl/opera-sopot,sopot.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>667 579 719</x:t>
+    <x:t>https://hoteltesta.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 58 717 68 50, +48 722 221 216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@hoteltesta.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Lubiński Resort</x:t>
@@ -2185,22 +2854,13 @@
     <x:t>790 339 006</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Lubi%C5%84ski%20Resort%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel SPA Wieniawa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 673 92 80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hotelwieniawa.com/kontakt/dane-kontaktowe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504-202506, 644149884, 58 673 92 80, +48 58 673 92 80, +48 728 322 524, +48 728 322 523, +48 784 658 803, +48 606 327 851, +48 606 992 994, +48 58 677 72 20, +48 797 715 336, 6441498 84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rezerwacja@hotelwieniawa.com, gastronomia@hotelwieniawa.com, marketing@hotelwieniawa.com, biurospa@hotelwieniawa.com, biuro@hotelwieniawa.com, 20spa@hotelwieniawa.com, SPAmanagerspa@hotelwieniawa.com</x:t>
+    <x:t>https://www.lubinskiresort.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 790 339 005, +48 790 339 006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kontakt@lubinskiresort.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Neptun</x:t>
@@ -2230,7 +2890,13 @@
     <x:t>693 777 024</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Baltic%20Hotel%20kontakt&amp;sei=0vvwZ4XVIuWn1fIP64b1kQM#</x:t>
+    <x:t>https://www.baltichotel.pl/kontakt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 693 777 024, 222137796, +48 508 898 309, +48 508 043 730, +48 504 444 040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rezerwacje@baltichotel.pl, 309marketing@baltichotel.pl, osteriafino@gmail.com, kontakt@manaspa.com</x:t>
   </x:si>
   <x:si>
     <x:t>Kameralny Aparthotel Elegante Władysławowo - Adults Only</x:t>
@@ -2242,21 +2908,6 @@
     <x:t>https://m.facebook.com/p/Elegante-Apartments-W%C5%82adys%C5%82awowo-100057501217526/</x:t>
   </x:si>
   <x:si>
-    <x:t>Celestin Residence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 506 56 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/search?q=%20Celestin%20Residence%20kontakt#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willa Lapwing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/lapwingresidence/?locale=pl_PL</x:t>
-  </x:si>
-  <x:si>
     <x:t>Resort Eden Premium</x:t>
   </x:si>
   <x:si>
@@ -2272,25 +2923,19 @@
     <x:t>https://www.facebook.com/zajazdkorona/?locale=pl_PL</x:t>
   </x:si>
   <x:si>
-    <x:t>Zefiro Ogrody</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.zefirorooms.pl/contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+48 579519110, 584100736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579519110E-mailkontakt@zefirorooms.plOpening, 579519110kontakt@zefirorooms.plTermsPrivacy</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jezioranka Apartamenty</x:t>
   </x:si>
   <x:si>
     <x:t>722 025 557</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Jezioranka%20Apartamenty%20kontakt#</x:t>
+    <x:t>http://jezioranka.com/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 722 075 557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>biuro@jezioranka.com</x:t>
   </x:si>
   <x:si>
     <x:t>Maloves Resort &amp; Spa Prywatne Apartamenty</x:t>
@@ -2311,7 +2956,10 @@
     <x:t>58 550 00 11</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Miramar%20kontakt#</x:t>
+    <x:t>https://hotelmiramar.pl/kontakt/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>miramar@hotelmiramar.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Apartament Środziemnomorski</x:t>
@@ -2335,13 +2983,19 @@
     <x:t>601 954 834</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.com/search?q=%20Hotel%20Le%C5%9Bny%20Korne%20kontakt#</x:t>
+    <x:t>https://hotellesnydworek.pl/kontakt</x:t>
   </x:si>
   <x:si>
     <x:t>Hotel Europa</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.facebook.com/europahotelspa/</x:t>
+    <x:t>http://www.europa-hotel.pl/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+48 41 276 78 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hotel@europa-hotel.pl</x:t>
   </x:si>
   <x:si>
     <x:t>Siedlisko Milachowo nad rzeką - luxury wellness oasis Adults only</x:t>
@@ -2362,22 +3016,19 @@
     <x:t>Tanie Noclegi Gdansk</x:t>
   </x:si>
   <x:si>
-    <x:t>https://meteor-turystyka.pl/noclegi,gdansk,0.html</x:t>
+    <x:t>https://moonhostel.pl/pl/gdansk?utm_source=Google&amp;utm_medium=Organic&amp;utm_campaign=GMF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 331 110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdansk@moonhostel.eu</x:t>
   </x:si>
   <x:si>
     <x:t>Tanie Noclegi Gdańsk</x:t>
   </x:si>
   <x:si>
     <x:t>https://e-turysta.pl/noclegi-gdansk/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hotel Ren &amp; Restauracja Browar Kociewski</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://browarkociewski.pl/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 530 84 41</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2728,7 +3379,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E226"/>
+  <x:dimension ref="A1:E239"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2779,38 +3430,38 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
@@ -2821,13 +3472,13 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>8</x:v>
@@ -2838,30 +3489,30 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>8</x:v>
@@ -2872,104 +3523,104 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="E13" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -2983,61 +3634,61 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="E18" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -3054,21 +3705,21 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>79</x:v>
@@ -3079,78 +3730,78 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>8</x:v>
@@ -3161,251 +3812,251 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>8</x:v>
@@ -3416,30 +4067,30 @@
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>8</x:v>
@@ -3450,13 +4101,13 @@
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>8</x:v>
@@ -3467,217 +4118,217 @@
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
         <x:v>8</x:v>
@@ -3688,234 +4339,234 @@
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
         <x:v>8</x:v>
@@ -3926,81 +4577,81 @@
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>8</x:v>
@@ -4011,13 +4662,13 @@
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>8</x:v>
@@ -4028,115 +4679,115 @@
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
         <x:v>8</x:v>
@@ -4147,220 +4798,220 @@
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>8</x:v>
@@ -4368,33 +5019,33 @@
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>8</x:v>
@@ -4402,81 +5053,81 @@
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>436</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
         <x:v>8</x:v>
@@ -4487,135 +5138,135 @@
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="A104" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="A105" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>8</x:v>
@@ -4623,13 +5274,13 @@
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
         <x:v>8</x:v>
@@ -4640,166 +5291,166 @@
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>488</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>493</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
         <x:v>8</x:v>
@@ -4810,98 +5461,98 @@
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>531</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
         <x:v>8</x:v>
@@ -4912,50 +5563,50 @@
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>8</x:v>
@@ -4963,81 +5614,81 @@
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="A133" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="A134" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="A135" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="A136" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
         <x:v>8</x:v>
@@ -5048,81 +5699,81 @@
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="A137" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="A138" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="A139" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>589</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="A140" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="A141" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
         <x:v>8</x:v>
@@ -5133,47 +5784,47 @@
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="A142" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="A143" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:5">
       <x:c r="A144" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
         <x:v>8</x:v>
@@ -5184,407 +5835,407 @@
     </x:row>
     <x:row r="145" spans="1:5">
       <x:c r="A145" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>613</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:5">
       <x:c r="A146" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:5">
       <x:c r="A147" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:5">
       <x:c r="A148" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:5">
       <x:c r="A149" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:5">
       <x:c r="A150" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:5">
       <x:c r="A151" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:5">
       <x:c r="A152" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:5">
       <x:c r="A153" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:5">
       <x:c r="A154" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:5">
       <x:c r="A155" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>653</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:5">
       <x:c r="A156" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:5">
       <x:c r="A157" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:5">
       <x:c r="A158" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:5">
       <x:c r="A159" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>672</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:5">
       <x:c r="A160" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:5">
       <x:c r="A161" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:5">
       <x:c r="A162" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>686</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:5">
       <x:c r="A163" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:5">
       <x:c r="A164" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:5">
       <x:c r="A165" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:5">
       <x:c r="A166" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:5">
       <x:c r="A167" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:5">
       <x:c r="A168" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
         <x:v>8</x:v>
@@ -5592,217 +6243,217 @@
     </x:row>
     <x:row r="169" spans="1:5">
       <x:c r="A169" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:5">
       <x:c r="A170" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:5">
       <x:c r="A171" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:5">
       <x:c r="A172" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>732</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5">
       <x:c r="A173" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>736</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:5">
       <x:c r="A174" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>741</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:5">
       <x:c r="A175" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>746</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:5">
       <x:c r="A176" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>750</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:5">
       <x:c r="A177" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:5">
       <x:c r="A178" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:5">
       <x:c r="A179" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:5">
       <x:c r="A180" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:5">
       <x:c r="A181" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
         <x:v>8</x:v>
@@ -5813,50 +6464,50 @@
     </x:row>
     <x:row r="182" spans="1:5">
       <x:c r="A182" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:5">
       <x:c r="A183" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>781</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:5">
       <x:c r="A184" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
         <x:v>8</x:v>
@@ -5864,64 +6515,64 @@
     </x:row>
     <x:row r="185" spans="1:5">
       <x:c r="A185" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>788</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:5">
       <x:c r="A186" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>793</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:5">
       <x:c r="A187" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>798</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
         <x:v>8</x:v>
@@ -5932,13 +6583,10 @@
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C189" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
         <x:v>8</x:v>
@@ -5949,339 +6597,339 @@
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>808</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>822</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>838</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>843</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>848</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:5">
       <x:c r="A200" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>852</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:5">
       <x:c r="A201" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>857</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:5">
       <x:c r="A202" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>862</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:5">
       <x:c r="A203" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>866</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:5">
       <x:c r="A204" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="E204" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>871</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:5">
       <x:c r="A205" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="D205" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="E205" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>876</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:5">
       <x:c r="A206" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="E206" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>881</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:5">
       <x:c r="A207" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:5">
       <x:c r="A208" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:5">
       <x:c r="A209" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
         <x:v>8</x:v>
@@ -6289,50 +6937,50 @@
     </x:row>
     <x:row r="210" spans="1:5">
       <x:c r="A210" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>897</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:5">
       <x:c r="A211" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>901</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:5">
       <x:c r="A212" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
         <x:v>8</x:v>
@@ -6340,30 +6988,30 @@
     </x:row>
     <x:row r="213" spans="1:5">
       <x:c r="A213" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>909</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:5">
       <x:c r="A214" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
         <x:v>8</x:v>
@@ -6374,84 +7022,84 @@
     </x:row>
     <x:row r="215" spans="1:5">
       <x:c r="A215" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:5">
       <x:c r="A216" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:5">
       <x:c r="A217" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:5">
       <x:c r="A218" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>927</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:5">
       <x:c r="A219" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="D219" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>8</x:v>
@@ -6459,30 +7107,30 @@
     </x:row>
     <x:row r="220" spans="1:5">
       <x:c r="A220" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:5">
       <x:c r="A221" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
         <x:v>8</x:v>
@@ -6493,47 +7141,47 @@
     </x:row>
     <x:row r="222" spans="1:5">
       <x:c r="A222" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:5">
       <x:c r="A223" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>948</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:5">
       <x:c r="A224" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
         <x:v>8</x:v>
@@ -6544,35 +7192,256 @@
     </x:row>
     <x:row r="225" spans="1:5">
       <x:c r="A225" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>955</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:5">
       <x:c r="A226" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="C226" s="0" t="s">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c r="D226" s="0" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="E226" s="0" t="s">
+        <x:v>960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:5">
+      <x:c r="A227" s="0" t="s">
+        <x:v>961</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="C227" s="0" t="s">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c r="D227" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E227" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:5">
+      <x:c r="A228" s="0" t="s">
+        <x:v>964</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="C228" s="0" t="s">
+        <x:v>966</x:v>
+      </x:c>
+      <x:c r="D228" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E228" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:5">
+      <x:c r="A229" s="0" t="s">
+        <x:v>967</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C226" s="0" t="s">
-        <x:v>786</x:v>
-      </x:c>
-      <x:c r="D226" s="0" t="s">
-        <x:v>787</x:v>
-      </x:c>
-      <x:c r="E226" s="0" t="s">
+      <x:c r="C229" s="0" t="s">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="D229" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E229" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:5">
+      <x:c r="A230" s="0" t="s">
+        <x:v>969</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="C230" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="D230" s="0" t="s">
+        <x:v>972</x:v>
+      </x:c>
+      <x:c r="E230" s="0" t="s">
+        <x:v>973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:5">
+      <x:c r="A231" s="0" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="D231" s="0" t="s">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="E231" s="0" t="s">
+        <x:v>977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:5">
+      <x:c r="A232" s="0" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="C232" s="0" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="D232" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="E232" s="0" t="s">
+        <x:v>981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:5">
+      <x:c r="A233" s="0" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C233" s="0" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="D233" s="0" t="s">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="E233" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:5">
+      <x:c r="A234" s="0" t="s">
+        <x:v>985</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C234" s="0" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="D234" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E234" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:5">
+      <x:c r="A235" s="0" t="s">
+        <x:v>987</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
+        <x:v>988</x:v>
+      </x:c>
+      <x:c r="C235" s="0" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="D235" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E235" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:5">
+      <x:c r="A236" s="0" t="s">
+        <x:v>990</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C236" s="0" t="s">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c r="D236" s="0" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="E236" s="0" t="s">
+        <x:v>993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:5">
+      <x:c r="A237" s="0" t="s">
+        <x:v>994</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c r="C237" s="0" t="s">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c r="D237" s="0" t="s">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="E237" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:5">
+      <x:c r="A238" s="0" t="s">
+        <x:v>999</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C238" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="D238" s="0" t="s">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="E238" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:5">
+      <x:c r="A239" s="0" t="s">
+        <x:v>1003</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C239" s="0" t="s">
+        <x:v>1004</x:v>
+      </x:c>
+      <x:c r="D239" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E239" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
